--- a/biology/Médecine/Yves_Lamontagne/Yves_Lamontagne.xlsx
+++ b/biology/Médecine/Yves_Lamontagne/Yves_Lamontagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Lamontagne (né à Verdun le 10 octobre 1941[1]) est un psychiatre québécois qui a été président du Collège des médecins du Québec de 1998 à 2010[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Lamontagne (né à Verdun le 10 octobre 1941) est un psychiatre québécois qui a été président du Collège des médecins du Québec de 1998 à 2010.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après ses études en médecine[3], il travaille au Biafra comme responsable des camps des enfants mutilés de guerre. Peu après, il complète des études en psychiatrie à l'Institute of Psychiatry, du King's College de Londres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études en médecine, il travaille au Biafra comme responsable des camps des enfants mutilés de guerre. Peu après, il complète des études en psychiatrie à l'Institute of Psychiatry, du King's College de Londres.
 Il enseigne ensuite à la Faculté de médecine de l'Université de Montréal, et agit comme président de l'Association des médecins psychiatres du Québec. Il a fondé le Centre de recherche Fernand-Seguin de l'Hôpital Louis-Hippolyte-Lafontaine. Il a aussi fondé en 1980 la Fondation des maladies mentales, aujourd’hui Fondation Jeunes en Tête.
 Il a écrit près de 200 articles de nature médicale, tant au Canada, aux États-Unis qu'en Europe. Il est aussi l'auteur de 29 livres.
 </t>
